--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H2">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N2">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O2">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P2">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q2">
-        <v>17.59318256215</v>
+        <v>28.17312831471875</v>
       </c>
       <c r="R2">
-        <v>70.37273024859999</v>
+        <v>112.692513258875</v>
       </c>
       <c r="S2">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="T2">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H3">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P3">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q3">
-        <v>3.838110341582</v>
+        <v>6.3282177600125</v>
       </c>
       <c r="R3">
-        <v>23.028662049492</v>
+        <v>37.969306560075</v>
       </c>
       <c r="S3">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="T3">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H4">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N4">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O4">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P4">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q4">
-        <v>7.445958526068666</v>
+        <v>8.724284199612502</v>
       </c>
       <c r="R4">
-        <v>44.675751156412</v>
+        <v>52.345705197675</v>
       </c>
       <c r="S4">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="T4">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H5">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N5">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O5">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P5">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q5">
-        <v>7.75133240462</v>
+        <v>9.199601610125001</v>
       </c>
       <c r="R5">
-        <v>31.00532961848</v>
+        <v>36.7984064405</v>
       </c>
       <c r="S5">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="T5">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H6">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N6">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O6">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P6">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q6">
-        <v>10.60065376831867</v>
+        <v>3.214229790600001</v>
       </c>
       <c r="R6">
-        <v>63.603922609912</v>
+        <v>19.2853787436</v>
       </c>
       <c r="S6">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="T6">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.980366</v>
+        <v>1.6164125</v>
       </c>
       <c r="H7">
-        <v>1.960732</v>
+        <v>3.232825</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N7">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O7">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P7">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q7">
-        <v>8.662255486164668</v>
+        <v>6.558615809720834</v>
       </c>
       <c r="R7">
-        <v>51.97353291698801</v>
+        <v>39.351694858325</v>
       </c>
       <c r="S7">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="T7">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
     </row>
   </sheetData>
